--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8940677966101694</v>
+        <v>0.6437125748502994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9813953488372092</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9356984478935697</v>
+        <v>0.7832422586520947</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9649323958896701</v>
+        <v>0.9450513791238507</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9861111111111112</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953271028037384</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9906976744186047</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995653118887198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9247787610619469</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9766355140186916</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9509889154531623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8464566929133859</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9168443496801706</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9756357313627472</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6614906832298136</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9906976744186047</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7932960893854749</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6854379482721148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8625810089852856</v>
+        <v>0.9287425149700599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9888111280156489</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9173073122755639</v>
+        <v>0.956648451730419</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9153120605732828</v>
+        <v>0.9890102758247702</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6437125748502994</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7832422586520947</v>
+        <v>0.8326530612244898</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9450513791238507</v>
+        <v>0.94612672655269</v>
       </c>
     </row>
     <row r="3">
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9287425149700599</v>
+        <v>0.9426573426573427</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.956648451730419</v>
+        <v>0.966530612244898</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9890102758247702</v>
+        <v>0.989225345310538</v>
       </c>
     </row>
   </sheetData>
